--- a/schedules/schedule_teachers_overview.xlsx
+++ b/schedules/schedule_teachers_overview.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI18"/>
+  <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,8 +807,86 @@
       <c r="Z3" t="n">
         <v>2</v>
       </c>
+      <c r="AB3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>20</v>
+      </c>
       <c r="S4" s="1" t="n"/>
       <c r="T4" s="1" t="inlineStr">
         <is>
@@ -1196,6 +1274,34 @@
       </c>
       <c r="Z18" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="S19" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2</v>
+      </c>
+      <c r="W19" t="n">
+        <v>6</v>
+      </c>
+      <c r="X19" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1214,7 +1320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AI7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1557,6 +1663,32 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>19</v>
+      </c>
       <c r="J4" s="1" t="n"/>
       <c r="K4" s="1" t="inlineStr">
         <is>
@@ -1752,6 +1884,86 @@
       </c>
       <c r="Z6" t="n">
         <v>3</v>
+      </c>
+      <c r="AB6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>19</v>
+      </c>
+      <c r="S7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3</v>
+      </c>
+      <c r="X7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1771,7 +1983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2138,6 +2350,32 @@
       <c r="H4" t="n">
         <v>4</v>
       </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>24</v>
+      </c>
       <c r="S4" s="1" t="n"/>
       <c r="T4" s="1" t="inlineStr">
         <is>
@@ -2410,6 +2648,32 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>24</v>
+      </c>
       <c r="S8" s="1" t="n"/>
       <c r="T8" s="1" t="inlineStr">
         <is>
@@ -2507,6 +2771,60 @@
       </c>
       <c r="AI9" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="S10" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB10" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2526,7 +2844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2869,6 +3187,32 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>27</v>
+      </c>
       <c r="J4" s="1" t="n"/>
       <c r="K4" s="1" t="inlineStr">
         <is>
@@ -2991,6 +3335,32 @@
       <c r="Z5" t="n">
         <v>2</v>
       </c>
+      <c r="AB5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="6">
       <c r="J6" s="1" t="n"/>
@@ -3140,6 +3510,60 @@
       </c>
       <c r="Z8" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>7</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>27</v>
+      </c>
+      <c r="S9" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>5</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3159,7 +3583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3574,6 +3998,32 @@
       <c r="Z4" t="n">
         <v>8</v>
       </c>
+      <c r="AB4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -3674,6 +4124,58 @@
       <c r="H6" t="n">
         <v>9</v>
       </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>8</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>22</v>
+      </c>
+      <c r="S6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>8</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -3751,6 +4253,34 @@
       </c>
       <c r="H9" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3770,7 +4300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4039,6 +4569,58 @@
       <c r="H3" t="n">
         <v>3</v>
       </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>4</v>
+      </c>
       <c r="AB3" s="1" t="n"/>
       <c r="AC3" s="1" t="inlineStr">
         <is>
@@ -4062,6 +4644,60 @@
       </c>
       <c r="AI3" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4079,7 +4715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4348,6 +4984,32 @@
       <c r="H3" t="n">
         <v>23</v>
       </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>8</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>30</v>
+      </c>
       <c r="S3" s="1" t="n"/>
       <c r="T3" s="1" t="inlineStr">
         <is>
@@ -4398,6 +5060,32 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>30</v>
+      </c>
       <c r="S4" s="1" t="n"/>
       <c r="T4" s="1" t="inlineStr">
         <is>
@@ -4522,6 +5210,32 @@
       <c r="Z6" t="n">
         <v>5</v>
       </c>
+      <c r="AB6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="7">
       <c r="S7" s="1" t="n"/>
@@ -4599,6 +5313,34 @@
       </c>
       <c r="Z9" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="S10" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="U10" t="n">
+        <v>8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>5</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6</v>
+      </c>
+      <c r="X10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4617,7 +5359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5032,8 +5774,60 @@
       <c r="Z4" t="n">
         <v>3</v>
       </c>
+      <c r="AB4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>32</v>
+      </c>
       <c r="J5" s="1" t="n"/>
       <c r="K5" s="1" t="inlineStr">
         <is>
@@ -5084,6 +5878,32 @@
       </c>
     </row>
     <row r="6">
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>7</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>9</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>32</v>
+      </c>
       <c r="S6" s="1" t="n"/>
       <c r="T6" s="1" t="inlineStr">
         <is>
@@ -5315,6 +6135,34 @@
       </c>
       <c r="Z14" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="S15" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>7</v>
+      </c>
+      <c r="W15" t="n">
+        <v>10</v>
+      </c>
+      <c r="X15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -5334,7 +6182,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5677,6 +6525,32 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28</v>
+      </c>
       <c r="J4" s="1" t="n"/>
       <c r="K4" s="1" t="inlineStr">
         <is>
@@ -5873,8 +6747,60 @@
       <c r="Z6" t="n">
         <v>5</v>
       </c>
+      <c r="AB6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="7">
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>28</v>
+      </c>
       <c r="S7" s="1" t="n"/>
       <c r="T7" s="1" t="inlineStr">
         <is>
@@ -5924,6 +6850,34 @@
       </c>
       <c r="Z8" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="S9" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="U9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -5943,7 +6897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6384,6 +7338,58 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>19</v>
+      </c>
       <c r="S5" s="1" t="n"/>
       <c r="T5" s="1" t="inlineStr">
         <is>
@@ -6631,6 +7637,60 @@
       </c>
       <c r="AI9" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="S10" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>3</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB10" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -6650,7 +7710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7114,6 +8174,112 @@
       </c>
       <c r="H5" t="n">
         <v>1</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>8</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>30</v>
+      </c>
+      <c r="S5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>8</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -7133,7 +8299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI7"/>
+  <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7646,6 +8812,32 @@
       <c r="Z5" t="n">
         <v>1</v>
       </c>
+      <c r="AB5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -7672,6 +8864,32 @@
       <c r="H6" t="n">
         <v>3</v>
       </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>28</v>
+      </c>
       <c r="S6" s="1" t="n"/>
       <c r="T6" s="1" t="inlineStr">
         <is>
@@ -7698,6 +8916,32 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>28</v>
+      </c>
       <c r="S7" s="1" t="n"/>
       <c r="T7" s="1" t="inlineStr">
         <is>
@@ -7721,6 +8965,34 @@
       </c>
       <c r="Z7" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="S8" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U8" t="n">
+        <v>7</v>
+      </c>
+      <c r="V8" t="n">
+        <v>6</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6</v>
+      </c>
+      <c r="X8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -7740,7 +9012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AI7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8009,6 +9281,32 @@
       <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>20</v>
+      </c>
       <c r="S3" s="1" t="n"/>
       <c r="T3" s="1" t="inlineStr">
         <is>
@@ -8083,6 +9381,32 @@
       <c r="H4" t="n">
         <v>8</v>
       </c>
+      <c r="S4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>6</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>20</v>
+      </c>
       <c r="AB4" s="1" t="n"/>
       <c r="AC4" s="1" t="inlineStr">
         <is>
@@ -8182,6 +9506,60 @@
       </c>
       <c r="H6" t="n">
         <v>5</v>
+      </c>
+      <c r="AB6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -8200,7 +9578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8543,6 +9921,32 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>23</v>
+      </c>
       <c r="J4" s="1" t="n"/>
       <c r="K4" s="1" t="inlineStr">
         <is>
@@ -8739,6 +10143,32 @@
       <c r="Z6" t="n">
         <v>3</v>
       </c>
+      <c r="AB6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="7">
       <c r="J7" s="1" t="n"/>
@@ -8814,6 +10244,60 @@
       </c>
       <c r="Q8" t="n">
         <v>3</v>
+      </c>
+      <c r="S8" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>6</v>
+      </c>
+      <c r="W8" t="n">
+        <v>4</v>
+      </c>
+      <c r="X8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -8833,7 +10317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9078,6 +10562,58 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>7</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>13</v>
+      </c>
       <c r="S3" s="1" t="n"/>
       <c r="T3" s="1" t="inlineStr">
         <is>
@@ -9302,6 +10838,32 @@
       <c r="Z7" t="n">
         <v>1</v>
       </c>
+      <c r="AB7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="S8" s="1" t="n"/>
@@ -9483,6 +11045,34 @@
       </c>
       <c r="Z14" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="S15" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>6</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -9500,7 +11090,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9793,6 +11383,32 @@
       <c r="Q3" t="n">
         <v>4</v>
       </c>
+      <c r="S3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3</v>
+      </c>
+      <c r="W3" t="n">
+        <v>3</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>6</v>
+      </c>
       <c r="AB3" s="1" t="n"/>
       <c r="AC3" s="1" t="inlineStr">
         <is>
@@ -9843,6 +11459,32 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6</v>
+      </c>
       <c r="AB4" s="1" t="n"/>
       <c r="AC4" s="1" t="inlineStr">
         <is>
@@ -9866,6 +11508,60 @@
       </c>
       <c r="AI4" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -9884,7 +11580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10325,6 +12021,58 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>21</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>21</v>
+      </c>
       <c r="S5" s="1" t="n"/>
       <c r="T5" s="1" t="inlineStr">
         <is>
@@ -10372,6 +12120,60 @@
       </c>
       <c r="AI5" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="S6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -10391,7 +12193,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10708,8 +12510,86 @@
       <c r="Z3" t="n">
         <v>3</v>
       </c>
+      <c r="AB3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>9</v>
+      </c>
       <c r="S4" s="1" t="n"/>
       <c r="T4" s="1" t="inlineStr">
         <is>
@@ -10759,6 +12639,34 @@
       </c>
       <c r="Z5" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="S6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -10777,7 +12685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11192,8 +13100,60 @@
       <c r="Z4" t="n">
         <v>2</v>
       </c>
+      <c r="AB4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>29</v>
+      </c>
       <c r="J5" s="1" t="n"/>
       <c r="K5" s="1" t="inlineStr">
         <is>
@@ -11494,6 +13454,32 @@
       </c>
     </row>
     <row r="11">
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>9</v>
+      </c>
+      <c r="M11" t="n">
+        <v>7</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>29</v>
+      </c>
       <c r="S11" s="1" t="n"/>
       <c r="T11" s="1" t="inlineStr">
         <is>
@@ -11517,6 +13503,34 @@
       </c>
       <c r="Z11" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="S12" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="U12" t="n">
+        <v>9</v>
+      </c>
+      <c r="V12" t="n">
+        <v>7</v>
+      </c>
+      <c r="W12" t="n">
+        <v>9</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -11536,7 +13550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI16"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12099,6 +14113,32 @@
       <c r="H6" t="n">
         <v>6</v>
       </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>27</v>
+      </c>
       <c r="S6" s="1" t="n"/>
       <c r="T6" s="1" t="inlineStr">
         <is>
@@ -12223,6 +14263,32 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>27</v>
+      </c>
       <c r="S8" s="1" t="n"/>
       <c r="T8" s="1" t="inlineStr">
         <is>
@@ -12347,6 +14413,32 @@
       <c r="Z10" t="n">
         <v>2</v>
       </c>
+      <c r="AB10" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="11">
       <c r="S11" s="1" t="n"/>
@@ -12502,6 +14594,34 @@
       </c>
       <c r="Z16" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="S17" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="U17" t="n">
+        <v>7</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2</v>
+      </c>
+      <c r="W17" t="n">
+        <v>8</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -12521,7 +14641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI7"/>
+  <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12790,6 +14910,32 @@
       <c r="H3" t="n">
         <v>19</v>
       </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8</v>
+      </c>
+      <c r="P3" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>26</v>
+      </c>
       <c r="S3" s="1" t="n"/>
       <c r="T3" s="1" t="inlineStr">
         <is>
@@ -12914,6 +15060,32 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>26</v>
+      </c>
       <c r="S5" s="1" t="n"/>
       <c r="T5" s="1" t="inlineStr">
         <is>
@@ -12988,6 +15160,32 @@
       <c r="Z6" t="n">
         <v>5</v>
       </c>
+      <c r="AB6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="7">
       <c r="S7" s="1" t="n"/>
@@ -13013,6 +15211,34 @@
       </c>
       <c r="Z7" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="S8" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U8" t="n">
+        <v>7</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3</v>
+      </c>
+      <c r="X8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -13031,7 +15257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13272,6 +15498,112 @@
         <v>0</v>
       </c>
       <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13286,7 +15618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13653,6 +15985,32 @@
       <c r="H4" t="n">
         <v>7</v>
       </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>23</v>
+      </c>
       <c r="S4" s="1" t="n"/>
       <c r="T4" s="1" t="inlineStr">
         <is>
@@ -13875,6 +16233,32 @@
       <c r="H7" t="n">
         <v>4</v>
       </c>
+      <c r="S7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>7</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>23</v>
+      </c>
       <c r="AB7" s="1" t="n"/>
       <c r="AC7" s="1" t="inlineStr">
         <is>
@@ -13901,6 +16285,32 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>23</v>
+      </c>
       <c r="AB8" s="1" t="n"/>
       <c r="AC8" s="1" t="inlineStr">
         <is>
@@ -13976,6 +16386,34 @@
       </c>
       <c r="AI10" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="AB11" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -13995,7 +16433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14730,6 +17168,32 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>19</v>
+      </c>
       <c r="J8" s="1" t="n"/>
       <c r="K8" s="1" t="inlineStr">
         <is>
@@ -14753,6 +17217,86 @@
       </c>
       <c r="Q8" t="n">
         <v>3</v>
+      </c>
+      <c r="S8" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>4</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3</v>
+      </c>
+      <c r="X8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB8" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -14772,7 +17316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15213,6 +17757,32 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>24</v>
+      </c>
       <c r="J5" s="1" t="n"/>
       <c r="K5" s="1" t="inlineStr">
         <is>
@@ -15260,6 +17830,32 @@
       </c>
       <c r="Z5" t="n">
         <v>4</v>
+      </c>
+      <c r="AB5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -15313,6 +17909,32 @@
       </c>
     </row>
     <row r="7">
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>8</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>24</v>
+      </c>
       <c r="S7" s="1" t="n"/>
       <c r="T7" s="1" t="inlineStr">
         <is>
@@ -15388,6 +18010,34 @@
       </c>
       <c r="Z9" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="S10" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="U10" t="n">
+        <v>8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2</v>
+      </c>
+      <c r="X10" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -15407,7 +18057,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AI7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15676,6 +18326,32 @@
       <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>21</v>
+      </c>
       <c r="S3" s="1" t="n"/>
       <c r="T3" s="1" t="inlineStr">
         <is>
@@ -15774,6 +18450,32 @@
       <c r="Z4" t="n">
         <v>11</v>
       </c>
+      <c r="AB4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -15800,6 +18502,32 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
+      <c r="S5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -15825,6 +18553,34 @@
       </c>
       <c r="H6" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -15843,7 +18599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI7"/>
+  <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16284,6 +19040,32 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>31</v>
+      </c>
       <c r="J5" s="1" t="n"/>
       <c r="K5" s="1" t="inlineStr">
         <is>
@@ -16331,6 +19113,32 @@
       </c>
       <c r="Z5" t="n">
         <v>6</v>
+      </c>
+      <c r="AB5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -16431,6 +19239,60 @@
       </c>
       <c r="Z7" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>9</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4</v>
+      </c>
+      <c r="O8" t="n">
+        <v>8</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>31</v>
+      </c>
+      <c r="S8" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>9</v>
+      </c>
+      <c r="W8" t="n">
+        <v>4</v>
+      </c>
+      <c r="X8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -16450,7 +19312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16817,6 +19679,32 @@
       <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>23</v>
+      </c>
       <c r="S4" s="1" t="n"/>
       <c r="T4" s="1" t="inlineStr">
         <is>
@@ -16840,6 +19728,32 @@
       </c>
       <c r="Z4" t="n">
         <v>2</v>
+      </c>
+      <c r="AB4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -17043,6 +19957,32 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>23</v>
+      </c>
       <c r="S9" s="1" t="n"/>
       <c r="T9" s="1" t="inlineStr">
         <is>
@@ -17092,6 +20032,34 @@
       </c>
       <c r="Z10" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="S11" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>7</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3</v>
+      </c>
+      <c r="X11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -17111,7 +20079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17356,6 +20324,32 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>22</v>
+      </c>
       <c r="J3" s="1" t="n"/>
       <c r="K3" s="1" t="inlineStr">
         <is>
@@ -17552,6 +20546,32 @@
       <c r="Z5" t="n">
         <v>3</v>
       </c>
+      <c r="AB5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="6">
       <c r="J6" s="1" t="n"/>
@@ -17604,6 +20624,32 @@
       </c>
     </row>
     <row r="7">
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>22</v>
+      </c>
       <c r="S7" s="1" t="n"/>
       <c r="T7" s="1" t="inlineStr">
         <is>
@@ -17653,6 +20699,34 @@
       </c>
       <c r="Z8" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="S9" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>4</v>
+      </c>
+      <c r="W9" t="n">
+        <v>4</v>
+      </c>
+      <c r="X9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -17671,7 +20745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17916,6 +20990,32 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>13</v>
+      </c>
       <c r="J3" s="1" t="n"/>
       <c r="K3" s="1" t="inlineStr">
         <is>
@@ -17990,6 +21090,32 @@
       </c>
     </row>
     <row r="4">
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>13</v>
+      </c>
       <c r="S4" s="1" t="n"/>
       <c r="T4" s="1" t="inlineStr">
         <is>
@@ -18063,6 +21189,60 @@
       </c>
       <c r="Z5" t="n">
         <v>4</v>
+      </c>
+      <c r="AB5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="S6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -18081,7 +21261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18620,6 +21800,58 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>20</v>
+      </c>
       <c r="S6" s="1" t="n"/>
       <c r="T6" s="1" t="inlineStr">
         <is>
@@ -18743,6 +21975,60 @@
       </c>
       <c r="Z8" t="n">
         <v>1</v>
+      </c>
+      <c r="AB8" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="S9" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>5</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -18762,7 +22048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AI7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19007,6 +22293,58 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10</v>
+      </c>
       <c r="S3" s="1" t="n"/>
       <c r="T3" s="1" t="inlineStr">
         <is>
@@ -19131,6 +22469,32 @@
       <c r="Z5" t="n">
         <v>2</v>
       </c>
+      <c r="AB5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="6">
       <c r="S6" s="1" t="n"/>
@@ -19156,6 +22520,34 @@
       </c>
       <c r="Z6" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="S7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -19173,7 +22565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19540,6 +22932,32 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>31</v>
+      </c>
       <c r="S4" s="1" t="n"/>
       <c r="T4" s="1" t="inlineStr">
         <is>
@@ -19563,6 +22981,32 @@
       </c>
       <c r="Z4" t="n">
         <v>14</v>
+      </c>
+      <c r="AB4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -19589,6 +23033,60 @@
       </c>
       <c r="H5" t="n">
         <v>1</v>
+      </c>
+      <c r="S5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>8</v>
+      </c>
+      <c r="V5" t="n">
+        <v>5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>6</v>
+      </c>
+      <c r="X5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -19608,7 +23106,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20073,6 +23571,32 @@
       <c r="H5" t="n">
         <v>3</v>
       </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>23</v>
+      </c>
       <c r="S5" s="1" t="n"/>
       <c r="T5" s="1" t="inlineStr">
         <is>
@@ -20295,6 +23819,58 @@
       <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="S8" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7</v>
+      </c>
+      <c r="X8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB8" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -20320,6 +23896,34 @@
       </c>
       <c r="H9" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -20339,7 +23943,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI19"/>
+  <dimension ref="A1:AI20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20780,6 +24384,32 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>32</v>
+      </c>
       <c r="J5" s="1" t="n"/>
       <c r="K5" s="1" t="inlineStr">
         <is>
@@ -20828,8 +24458,60 @@
       <c r="Z5" t="n">
         <v>1</v>
       </c>
+      <c r="AB5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="6">
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>7</v>
+      </c>
+      <c r="P6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>32</v>
+      </c>
       <c r="S6" s="1" t="n"/>
       <c r="T6" s="1" t="inlineStr">
         <is>
@@ -21191,6 +24873,34 @@
       </c>
       <c r="Z19" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="S20" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U20" t="n">
+        <v>7</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3</v>
+      </c>
+      <c r="W20" t="n">
+        <v>6</v>
+      </c>
+      <c r="X20" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -21210,7 +24920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21625,6 +25335,32 @@
       <c r="Z4" t="n">
         <v>2</v>
       </c>
+      <c r="AB4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -21701,6 +25437,32 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>23</v>
+      </c>
       <c r="J6" s="1" t="n"/>
       <c r="K6" s="1" t="inlineStr">
         <is>
@@ -21801,6 +25563,32 @@
       </c>
     </row>
     <row r="8">
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>23</v>
+      </c>
       <c r="S8" s="1" t="n"/>
       <c r="T8" s="1" t="inlineStr">
         <is>
@@ -21954,6 +25742,34 @@
       </c>
       <c r="Z13" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="S14" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="U14" t="n">
+        <v>7</v>
+      </c>
+      <c r="V14" t="n">
+        <v>5</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -21973,7 +25789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22214,6 +26030,112 @@
         <v>0</v>
       </c>
       <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -22228,7 +26150,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AI7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22473,6 +26395,32 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11</v>
+      </c>
       <c r="J3" s="1" t="n"/>
       <c r="K3" s="1" t="inlineStr">
         <is>
@@ -22695,6 +26643,58 @@
       </c>
     </row>
     <row r="6">
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>11</v>
+      </c>
+      <c r="S6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>11</v>
+      </c>
       <c r="AB6" s="1" t="n"/>
       <c r="AC6" s="1" t="inlineStr">
         <is>
@@ -22718,6 +26718,34 @@
       </c>
       <c r="AI6" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="AB7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -22736,7 +26764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22981,6 +27009,58 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
       <c r="S3" s="1" t="n"/>
       <c r="T3" s="1" t="inlineStr">
         <is>
@@ -23004,6 +27084,60 @@
       </c>
       <c r="Z3" t="n">
         <v>2</v>
+      </c>
+      <c r="AB3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="S4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -23020,7 +27154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23265,6 +27399,58 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
       <c r="S3" s="1" t="n"/>
       <c r="T3" s="1" t="inlineStr">
         <is>
@@ -23288,6 +27474,60 @@
       </c>
       <c r="Z3" t="n">
         <v>2</v>
+      </c>
+      <c r="AB3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="S4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -23304,7 +27544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23549,6 +27789,58 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>21</v>
+      </c>
       <c r="S3" s="1" t="n"/>
       <c r="T3" s="1" t="inlineStr">
         <is>
@@ -23572,6 +27864,32 @@
       </c>
       <c r="Z3" t="n">
         <v>2</v>
+      </c>
+      <c r="AB3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -23780,6 +28098,34 @@
       </c>
       <c r="Z11" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="S12" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>4</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -23796,7 +28142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24113,8 +28459,60 @@
       <c r="Z3" t="n">
         <v>4</v>
       </c>
+      <c r="AB3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
       <c r="J4" s="1" t="n"/>
       <c r="K4" s="1" t="inlineStr">
         <is>
@@ -24188,6 +28586,60 @@
       </c>
       <c r="Q5" t="n">
         <v>1</v>
+      </c>
+      <c r="S5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>7</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -24206,7 +28658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24475,6 +28927,32 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>7</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>28</v>
+      </c>
       <c r="S3" s="1" t="n"/>
       <c r="T3" s="1" t="inlineStr">
         <is>
@@ -24525,6 +29003,32 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28</v>
+      </c>
       <c r="S4" s="1" t="n"/>
       <c r="T4" s="1" t="inlineStr">
         <is>
@@ -24699,6 +29203,32 @@
       <c r="Z7" t="n">
         <v>3</v>
       </c>
+      <c r="AB7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="8">
       <c r="S8" s="1" t="n"/>
@@ -24776,6 +29306,34 @@
       </c>
       <c r="Z10" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="S11" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="U11" t="n">
+        <v>6</v>
+      </c>
+      <c r="V11" t="n">
+        <v>4</v>
+      </c>
+      <c r="W11" t="n">
+        <v>7</v>
+      </c>
+      <c r="X11" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -24794,7 +29352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25039,6 +29597,58 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6</v>
+      </c>
+      <c r="P3" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>30</v>
+      </c>
       <c r="S3" s="1" t="n"/>
       <c r="T3" s="1" t="inlineStr">
         <is>
@@ -25113,6 +29723,32 @@
       <c r="Z4" t="n">
         <v>3</v>
       </c>
+      <c r="AB4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="5">
       <c r="S5" s="1" t="n"/>
@@ -25294,6 +29930,34 @@
       </c>
       <c r="Z11" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="S12" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="U12" t="n">
+        <v>7</v>
+      </c>
+      <c r="V12" t="n">
+        <v>7</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3</v>
+      </c>
+      <c r="X12" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -25311,7 +29975,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25678,6 +30342,32 @@
       <c r="H4" t="n">
         <v>10</v>
       </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>13</v>
+      </c>
       <c r="S4" s="1" t="n"/>
       <c r="T4" s="1" t="inlineStr">
         <is>
@@ -25701,6 +30391,86 @@
       </c>
       <c r="Z4" t="n">
         <v>5</v>
+      </c>
+      <c r="AB4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>13</v>
+      </c>
+      <c r="S5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>8</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/schedules/schedule_teachers_overview.xlsx
+++ b/schedules/schedule_teachers_overview.xlsx
@@ -1812,10 +1812,8 @@
         <v>3</v>
       </c>
       <c r="AB5" s="1" t="n"/>
-      <c r="AC5" s="1" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
+      <c r="AC5" s="1" t="n">
+        <v>115</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -2301,10 +2299,8 @@
         <v>1</v>
       </c>
       <c r="AB3" s="1" t="n"/>
-      <c r="AC3" s="1" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
+      <c r="AC3" s="1" t="n">
+        <v>103</v>
       </c>
       <c r="AD3" t="n">
         <v>2</v>
@@ -2401,10 +2397,8 @@
         <v>7</v>
       </c>
       <c r="AB4" s="1" t="n"/>
-      <c r="AC4" s="1" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
+      <c r="AC4" s="1" t="n">
+        <v>110</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -2623,10 +2617,8 @@
         <v>1</v>
       </c>
       <c r="AB7" s="1" t="n"/>
-      <c r="AC7" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="AC7" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -2699,10 +2691,8 @@
         <v>4</v>
       </c>
       <c r="AB8" s="1" t="n"/>
-      <c r="AC8" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="AC8" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -2749,10 +2739,8 @@
         <v>6</v>
       </c>
       <c r="AB9" s="1" t="n"/>
-      <c r="AC9" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="AC9" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="AD9" t="n">
         <v>2</v>
@@ -4520,10 +4508,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="AC2" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -4622,10 +4608,8 @@
         <v>4</v>
       </c>
       <c r="AB3" s="1" t="n"/>
-      <c r="AC3" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="AC3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -7215,10 +7199,8 @@
         <v>3</v>
       </c>
       <c r="AB3" s="1" t="n"/>
-      <c r="AC3" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="AC3" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -7465,10 +7447,8 @@
         <v>2</v>
       </c>
       <c r="AB6" s="1" t="n"/>
-      <c r="AC6" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="AC6" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -8126,10 +8106,8 @@
         <v>9</v>
       </c>
       <c r="AB4" s="1" t="n"/>
-      <c r="AC4" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="AC4" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -9408,10 +9386,8 @@
         <v>20</v>
       </c>
       <c r="AB4" s="1" t="n"/>
-      <c r="AC4" s="1" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
+      <c r="AC4" s="1" t="n">
+        <v>102</v>
       </c>
       <c r="AD4" t="n">
         <v>4</v>
@@ -9798,10 +9774,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
+      <c r="AC2" s="1" t="n">
+        <v>111</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -11410,10 +11384,8 @@
         <v>6</v>
       </c>
       <c r="AB3" s="1" t="n"/>
-      <c r="AC3" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="AC3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -11486,10 +11458,8 @@
         <v>6</v>
       </c>
       <c r="AB4" s="1" t="n"/>
-      <c r="AC4" s="1" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
+      <c r="AC4" s="1" t="n">
+        <v>110</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -11996,10 +11966,8 @@
         <v>11</v>
       </c>
       <c r="AB4" s="1" t="n"/>
-      <c r="AC4" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="AC4" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -15477,10 +15445,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="AC2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -15936,10 +15902,8 @@
         <v>2</v>
       </c>
       <c r="AB3" s="1" t="n"/>
-      <c r="AC3" s="1" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
+      <c r="AC3" s="1" t="n">
+        <v>209</v>
       </c>
       <c r="AD3" t="n">
         <v>3</v>
@@ -16364,10 +16328,8 @@
     </row>
     <row r="10">
       <c r="AB10" s="1" t="n"/>
-      <c r="AC10" s="1" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
+      <c r="AC10" s="1" t="n">
+        <v>110</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -17143,10 +17105,8 @@
         <v>2</v>
       </c>
       <c r="AB7" s="1" t="n"/>
-      <c r="AC7" s="1" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
+      <c r="AC7" s="1" t="n">
+        <v>102</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -18277,10 +18237,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
+      <c r="AC2" s="1" t="n">
+        <v>101</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -22883,10 +22841,8 @@
         <v>8</v>
       </c>
       <c r="AB3" s="1" t="n"/>
-      <c r="AC3" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="AC3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
         <v>8</v>
@@ -26009,10 +25965,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
+      <c r="AC2" s="1" t="n">
+        <v>110</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -29154,10 +29108,8 @@
         <v>2</v>
       </c>
       <c r="AB6" s="1" t="n"/>
-      <c r="AC6" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="AC6" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -30195,10 +30147,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="AC2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
